--- a/example_data.xlsx
+++ b/example_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YPP4 GIT\ypp4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\YPP 4\ypp4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25C2841A-E9E3-4168-AFA0-AD75739D169C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13692EBC-7538-4EEB-8252-9172F2C234FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{3FCDC1E8-3F3D-49E2-9489-AC8A5DF61D6D}"/>
+    <workbookView xWindow="10260" yWindow="0" windowWidth="18540" windowHeight="15600" activeTab="2" xr2:uid="{3FCDC1E8-3F3D-49E2-9489-AC8A5DF61D6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Choice Column" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="178">
   <si>
     <t>Id</t>
   </si>
@@ -451,33 +451,15 @@
     <t xml:space="preserve">Null </t>
   </si>
   <si>
-    <t>FromListId</t>
-  </si>
-  <si>
     <t>FromColumnId</t>
   </si>
   <si>
-    <t>To ListId</t>
-  </si>
-  <si>
-    <t>IsMultiple</t>
-  </si>
-  <si>
     <t>1.Văn A</t>
   </si>
   <si>
     <t>Chức Vụ</t>
   </si>
   <si>
-    <t>2.LookUp</t>
-  </si>
-  <si>
-    <t>4.Phân Công</t>
-  </si>
-  <si>
-    <t>ListRelation</t>
-  </si>
-  <si>
     <t>Người phụ trách</t>
   </si>
   <si>
@@ -529,9 +511,6 @@
     <t>Chọn list nguồn</t>
   </si>
   <si>
-    <t>Chọn col nguồn</t>
-  </si>
-  <si>
     <t>Chọn thêm cột đi kèm</t>
   </si>
   <si>
@@ -574,9 +553,6 @@
     <t>3.Relation</t>
   </si>
   <si>
-    <t>Truyền Row Nguồn</t>
-  </si>
-  <si>
     <t>cột chức vụ</t>
   </si>
   <si>
@@ -584,6 +560,18 @@
   </si>
   <si>
     <t xml:space="preserve">5. Người phụ trách: Chức Vụ </t>
+  </si>
+  <si>
+    <t>Cột để lấy cell value</t>
+  </si>
+  <si>
+    <t>ListColumnLookupMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn Column Nguồn </t>
+  </si>
+  <si>
+    <t>Cột nguồn</t>
   </si>
 </sst>
 </file>
@@ -823,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -926,33 +914,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2492,10 +2466,10 @@
       </c>
     </row>
     <row r="12" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="31"/>
       <c r="K12" s="40" t="s">
         <v>73</v>
@@ -2755,20 +2729,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0CBC14-08A3-4812-BEBE-9EC877CC6E57}">
-  <dimension ref="B2:S42"/>
+  <dimension ref="B2:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="6" max="7" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
     <col min="12" max="14" width="21" customWidth="1"/>
     <col min="15" max="15" width="21.42578125" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" customWidth="1"/>
@@ -2782,7 +2759,7 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="M2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2816,13 +2793,13 @@
         <v>2</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>115</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
@@ -2850,11 +2827,11 @@
       <c r="M5" s="6">
         <v>5</v>
       </c>
-      <c r="N5" s="51" t="s">
+      <c r="N5" t="s">
         <v>130</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2867,13 +2844,13 @@
       <c r="G6" s="6">
         <v>2</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" s="6">
         <v>2</v>
       </c>
-      <c r="J6" s="51" t="s">
+      <c r="J6" t="s">
         <v>125</v>
       </c>
       <c r="K6" s="8" t="s">
@@ -2882,24 +2859,24 @@
       <c r="M6" s="6">
         <v>6</v>
       </c>
-      <c r="N6" s="51" t="s">
+      <c r="N6" t="s">
         <v>131</v>
       </c>
-      <c r="O6" s="55" t="s">
-        <v>156</v>
+      <c r="O6" s="8" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G7" s="6">
         <v>3</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" s="6">
         <v>3</v>
       </c>
-      <c r="J7" s="51" t="s">
+      <c r="J7" t="s">
         <v>125</v>
       </c>
       <c r="K7" s="8" t="s">
@@ -2908,11 +2885,11 @@
       <c r="M7" s="6">
         <v>7</v>
       </c>
-      <c r="N7" s="51" t="s">
+      <c r="N7" t="s">
         <v>132</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2922,7 +2899,7 @@
       <c r="G8" s="6">
         <v>4</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" s="10">
@@ -2940,8 +2917,8 @@
       <c r="N8" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="O8" s="56" t="s">
-        <v>158</v>
+      <c r="O8" s="13" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
@@ -2954,21 +2931,18 @@
       <c r="G9" s="6">
         <v>5</v>
       </c>
-      <c r="H9" s="52">
+      <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" s="6">
         <v>1</v>
       </c>
-      <c r="J9" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="K9" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
+      <c r="J9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="Q9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2985,25 +2959,22 @@
       <c r="G10" s="6">
         <v>6</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" s="6">
         <v>2</v>
       </c>
-      <c r="J10" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="K10" s="55" t="s">
+      <c r="J10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
       <c r="Q10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="64" t="s">
+      <c r="R10" s="27" t="s">
         <v>16</v>
       </c>
       <c r="S10" s="29" t="s">
@@ -3020,17 +2991,17 @@
       <c r="G11" s="6">
         <v>7</v>
       </c>
-      <c r="H11" s="52">
+      <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" s="6">
         <v>3</v>
       </c>
-      <c r="J11" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="K11" s="55" t="s">
-        <v>151</v>
+      <c r="J11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>20</v>
@@ -3040,8 +3011,8 @@
       <c r="Q11" s="6">
         <v>1</v>
       </c>
-      <c r="R11" s="51" t="s">
-        <v>165</v>
+      <c r="R11" t="s">
+        <v>158</v>
       </c>
       <c r="S11" s="8">
         <v>1</v>
@@ -3057,22 +3028,22 @@
       <c r="G12" s="10">
         <v>8</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="11">
         <v>1</v>
       </c>
       <c r="I12" s="6">
         <v>4</v>
       </c>
-      <c r="J12" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="K12" s="55" t="s">
-        <v>152</v>
+      <c r="J12" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="M12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="64" t="s">
+      <c r="N12" s="27" t="s">
         <v>17</v>
       </c>
       <c r="O12" s="29" t="s">
@@ -3081,8 +3052,8 @@
       <c r="Q12" s="6">
         <v>2</v>
       </c>
-      <c r="R12" s="51" t="s">
-        <v>165</v>
+      <c r="R12" t="s">
+        <v>158</v>
       </c>
       <c r="S12" s="8">
         <v>2</v>
@@ -3098,14 +3069,14 @@
       <c r="G13" s="6">
         <v>9</v>
       </c>
-      <c r="H13" s="51">
+      <c r="H13">
         <v>2</v>
       </c>
       <c r="I13" s="3">
         <v>5</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>130</v>
@@ -3113,19 +3084,19 @@
       <c r="M13" s="6">
         <v>1</v>
       </c>
-      <c r="N13" s="51" t="s">
+      <c r="N13" t="s">
         <v>118</v>
       </c>
-      <c r="O13" s="55" t="s">
+      <c r="O13" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Q13" s="51">
-        <v>3</v>
-      </c>
-      <c r="R13" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="S13" s="51">
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>158</v>
+      </c>
+      <c r="S13">
         <v>3</v>
       </c>
     </row>
@@ -3139,14 +3110,14 @@
       <c r="G14" s="6">
         <v>10</v>
       </c>
-      <c r="H14" s="51">
+      <c r="H14">
         <v>2</v>
       </c>
       <c r="I14" s="6">
         <v>6</v>
       </c>
-      <c r="J14" s="51" t="s">
-        <v>153</v>
+      <c r="J14" t="s">
+        <v>147</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>131</v>
@@ -3154,19 +3125,19 @@
       <c r="M14" s="6">
         <v>2</v>
       </c>
-      <c r="N14" s="51" t="s">
+      <c r="N14" t="s">
         <v>119</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Q14" s="52">
-        <v>4</v>
-      </c>
-      <c r="R14" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="S14" s="52">
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s">
+        <v>158</v>
+      </c>
+      <c r="S14">
         <v>4</v>
       </c>
     </row>
@@ -3180,31 +3151,34 @@
       <c r="G15" s="6">
         <v>11</v>
       </c>
-      <c r="H15" s="51">
+      <c r="H15">
         <v>2</v>
       </c>
       <c r="I15" s="6">
         <v>7</v>
       </c>
-      <c r="J15" s="51" t="s">
-        <v>153</v>
+      <c r="J15" t="s">
+        <v>147</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="M15" s="51">
-        <v>3</v>
-      </c>
-      <c r="N15" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="O15" s="51" t="s">
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>169</v>
+      </c>
+      <c r="O15" t="s">
         <v>37</v>
       </c>
-      <c r="R15" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="S15" s="52">
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s">
+        <v>170</v>
+      </c>
+      <c r="S15">
         <v>1</v>
       </c>
     </row>
@@ -3218,22 +3192,25 @@
       <c r="G16" s="6">
         <v>12</v>
       </c>
-      <c r="H16" s="51">
+      <c r="H16">
         <v>2</v>
       </c>
       <c r="I16" s="10">
         <v>8</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="R16" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="S16" s="52">
+      <c r="Q16">
+        <v>6</v>
+      </c>
+      <c r="R16" t="s">
+        <v>170</v>
+      </c>
+      <c r="S16">
         <v>5</v>
       </c>
     </row>
@@ -3247,31 +3224,31 @@
       <c r="G17" s="6">
         <v>13</v>
       </c>
-      <c r="H17" s="51">
+      <c r="H17">
         <v>2</v>
       </c>
       <c r="I17" s="3">
         <v>5</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G18" s="6">
         <v>14</v>
       </c>
-      <c r="H18" s="51">
+      <c r="H18">
         <v>2</v>
       </c>
       <c r="I18" s="6">
         <v>6</v>
       </c>
-      <c r="J18" s="51" t="s">
-        <v>148</v>
+      <c r="J18" t="s">
+        <v>142</v>
       </c>
       <c r="K18" s="8"/>
       <c r="M18" s="3" t="s">
@@ -3285,23 +3262,23 @@
       <c r="G19" s="6">
         <v>15</v>
       </c>
-      <c r="H19" s="51">
+      <c r="H19">
         <v>2</v>
       </c>
       <c r="I19" s="6">
         <v>7</v>
       </c>
-      <c r="J19" s="51" t="s">
-        <v>148</v>
+      <c r="J19" t="s">
+        <v>142</v>
       </c>
       <c r="K19" s="8"/>
       <c r="M19" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="N19" s="64" t="s">
+      <c r="N19" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="O19" s="65" t="s">
+      <c r="O19" s="28" t="s">
         <v>1</v>
       </c>
       <c r="P19" s="29" t="s">
@@ -3315,23 +3292,23 @@
       <c r="G20" s="6">
         <v>16</v>
       </c>
-      <c r="H20" s="51">
+      <c r="H20">
         <v>2</v>
       </c>
       <c r="I20" s="10">
         <v>8</v>
       </c>
-      <c r="J20" s="51" t="s">
-        <v>148</v>
+      <c r="J20" t="s">
+        <v>142</v>
       </c>
       <c r="K20" s="8"/>
       <c r="M20" s="6">
         <v>1</v>
       </c>
-      <c r="N20" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="O20" s="51" t="s">
+      <c r="N20" t="s">
+        <v>156</v>
+      </c>
+      <c r="O20" t="s">
         <v>37</v>
       </c>
       <c r="P20" s="8"/>
@@ -3349,25 +3326,25 @@
       <c r="G21" s="6">
         <v>17</v>
       </c>
-      <c r="H21" s="51">
+      <c r="H21">
         <v>2</v>
       </c>
       <c r="I21" s="10">
         <v>5</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M21" s="6">
         <v>2</v>
       </c>
-      <c r="N21" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="O21" s="51" t="s">
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" t="s">
         <v>37</v>
       </c>
       <c r="P21" s="8"/>
@@ -3376,7 +3353,7 @@
       <c r="B22" s="6">
         <v>1</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" t="s">
         <v>118</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -3385,22 +3362,23 @@
       <c r="G22" s="6">
         <v>18</v>
       </c>
-      <c r="H22" s="51"/>
       <c r="I22" s="3">
         <v>5</v>
       </c>
-      <c r="J22" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="K22" s="51"/>
+      <c r="J22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="M22" s="6">
         <v>3</v>
       </c>
-      <c r="N22" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="O22" s="51" t="s">
-        <v>169</v>
+      <c r="N22" t="s">
+        <v>161</v>
+      </c>
+      <c r="O22" t="s">
+        <v>162</v>
       </c>
       <c r="P22" s="8"/>
     </row>
@@ -3417,27 +3395,42 @@
       <c r="I23" s="6">
         <v>6</v>
       </c>
-      <c r="M23" s="66">
-        <v>4</v>
-      </c>
-      <c r="N23" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="O23" s="52" t="s">
+      <c r="J23" t="s">
+        <v>173</v>
+      </c>
+      <c r="M23" s="6">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>157</v>
+      </c>
+      <c r="O23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="I24" s="6">
         <v>7</v>
       </c>
-      <c r="M24" s="66">
+      <c r="J24" t="s">
+        <v>173</v>
+      </c>
+      <c r="M24" s="6">
         <v>5</v>
       </c>
-      <c r="N24" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="O24" s="52" t="s">
+      <c r="N24" t="s">
+        <v>177</v>
+      </c>
+      <c r="O24" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3448,6 +3441,9 @@
       <c r="I25" s="10">
         <v>8</v>
       </c>
+      <c r="J25" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="26" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
@@ -3462,8 +3458,17 @@
       <c r="E26" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="F26" s="5" t="s">
         <v>135</v>
+      </c>
+      <c r="I26" s="60">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3473,13 +3478,13 @@
       <c r="C27" s="3">
         <v>1</v>
       </c>
-      <c r="D27" s="61" t="s">
+      <c r="D27" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="62" t="s">
+      <c r="E27" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="55" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3490,8 +3495,8 @@
       <c r="C28" s="10">
         <v>1</v>
       </c>
-      <c r="D28" s="57" t="s">
-        <v>142</v>
+      <c r="D28" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>121</v>
@@ -3499,6 +3504,12 @@
       <c r="F28" s="13" t="s">
         <v>136</v>
       </c>
+      <c r="I28" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6">
@@ -3516,6 +3527,12 @@
       <c r="F29" s="5" t="s">
         <v>136</v>
       </c>
+      <c r="I29" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
@@ -3524,14 +3541,20 @@
       <c r="C30" s="6">
         <v>2</v>
       </c>
-      <c r="D30" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="59" t="s">
+      <c r="D30" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="60">
-        <v>1</v>
+      <c r="F30" s="52">
+        <v>1</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>9</v>
@@ -3544,194 +3567,254 @@
       <c r="B31" s="10">
         <v>5</v>
       </c>
-      <c r="C31" s="57">
-        <v>2</v>
-      </c>
-      <c r="D31" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="54" t="s">
-        <v>143</v>
+      <c r="C31" s="10">
+        <v>2</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" t="s">
+        <v>170</v>
       </c>
       <c r="F31" s="13"/>
+      <c r="I31" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="M31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N31" s="51" t="s">
+      <c r="N31" t="s">
         <v>6</v>
       </c>
-      <c r="O31" s="67" t="s">
+      <c r="O31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="M32" s="6">
         <v>1</v>
       </c>
-      <c r="N32" s="51">
-        <v>4</v>
-      </c>
-      <c r="O32" s="51">
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="O32">
         <v>1</v>
       </c>
       <c r="P32" s="47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M33" s="6">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+      <c r="M34" s="6">
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+      <c r="P34" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="K35" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57">
+        <v>4</v>
+      </c>
+      <c r="N35" s="57">
+        <v>4</v>
+      </c>
+      <c r="O35" s="57">
+        <v>4</v>
+      </c>
+      <c r="P35" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="10">
+        <v>1</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="K36" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="L36" s="46"/>
+      <c r="M36" s="56">
+        <v>4</v>
+      </c>
+      <c r="N36" s="56">
+        <v>4</v>
+      </c>
+      <c r="O36" s="56">
+        <v>4</v>
+      </c>
+      <c r="P36" s="56" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="33" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="M33" s="6">
-        <v>2</v>
-      </c>
-      <c r="N33" s="51">
-        <v>4</v>
-      </c>
-      <c r="O33" s="51">
-        <v>2</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="34" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
-        <v>145</v>
-      </c>
-      <c r="K34" s="70" t="s">
+      <c r="Q36" t="s">
         <v>171</v>
       </c>
-      <c r="L34" s="70"/>
-      <c r="M34" s="6">
-        <v>3</v>
-      </c>
-      <c r="N34" s="51">
-        <v>4</v>
-      </c>
-      <c r="O34" s="51">
-        <v>3</v>
-      </c>
-      <c r="P34" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E35" t="s">
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>5</v>
+      </c>
+      <c r="N37">
+        <v>4</v>
+      </c>
+      <c r="O37">
+        <v>4</v>
+      </c>
+      <c r="P37" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M38">
+        <v>5</v>
+      </c>
+      <c r="N38">
+        <v>5</v>
+      </c>
+      <c r="O38">
+        <v>5</v>
+      </c>
+      <c r="P38" s="47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I39" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="N39">
+        <v>5</v>
+      </c>
+      <c r="O39">
+        <v>6</v>
+      </c>
+      <c r="P39" s="56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>134</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="J40" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>0</v>
       </c>
-      <c r="F35" t="s">
-        <v>137</v>
-      </c>
-      <c r="G35" t="s">
-        <v>138</v>
-      </c>
-      <c r="H35" t="s">
-        <v>139</v>
-      </c>
-      <c r="I35" t="s">
-        <v>140</v>
-      </c>
-      <c r="K35" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="L35" s="46"/>
-      <c r="M35" s="69">
-        <v>4</v>
-      </c>
-      <c r="N35" s="69">
-        <v>4</v>
-      </c>
-      <c r="O35" s="69">
-        <v>4</v>
-      </c>
-      <c r="P35" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36" t="s">
-        <v>144</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="M36" s="68">
-        <v>4</v>
-      </c>
-      <c r="N36" s="68">
-        <v>4</v>
-      </c>
-      <c r="O36" s="68">
-        <v>4</v>
-      </c>
-      <c r="P36" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="M37" s="52">
-        <v>5</v>
-      </c>
-      <c r="N37" s="52">
-        <v>4</v>
-      </c>
-      <c r="O37" s="52">
-        <v>4</v>
-      </c>
-      <c r="P37" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="N38" s="52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E41" t="s">
-        <v>0</v>
-      </c>
-      <c r="F41" t="s">
-        <v>160</v>
-      </c>
-      <c r="G41" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
+      <c r="C41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" t="s">
+        <v>155</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J41" s="59"/>
+      <c r="K41" s="8"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
         <v>13</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J42" s="59"/>
+      <c r="K42" s="8"/>
+    </row>
+    <row r="43" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I43" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="J43" s="11"/>
+      <c r="K43" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/example_data.xlsx
+++ b/example_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\YPP 4\ypp4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YPP4 GIT\ypp4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13692EBC-7538-4EEB-8252-9172F2C234FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5445426C-2479-425F-A236-8532A9917467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="0" windowWidth="18540" windowHeight="15600" activeTab="2" xr2:uid="{3FCDC1E8-3F3D-49E2-9489-AC8A5DF61D6D}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{3FCDC1E8-3F3D-49E2-9489-AC8A5DF61D6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Choice Column" sheetId="2" r:id="rId1"/>
@@ -811,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -920,13 +920,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2466,10 +2475,10 @@
       </c>
     </row>
     <row r="12" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="31"/>
       <c r="K12" s="40" t="s">
         <v>73</v>
@@ -2729,10 +2738,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0CBC14-08A3-4812-BEBE-9EC877CC6E57}">
-  <dimension ref="B2:S43"/>
+  <dimension ref="B1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2745,7 +2754,7 @@
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="21.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
     <col min="12" max="14" width="21" customWidth="1"/>
     <col min="15" max="15" width="21.42578125" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" customWidth="1"/>
@@ -2757,7 +2766,27 @@
     <col min="22" max="22" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="M2" t="s">
         <v>148</v>
       </c>
@@ -2766,31 +2795,43 @@
       <c r="B3" t="s">
         <v>61</v>
       </c>
-      <c r="G3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>2</v>
+      <c r="G4" s="6">
+        <v>2</v>
+      </c>
+      <c r="H4" s="58">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>2</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>149</v>
@@ -2809,20 +2850,20 @@
       <c r="C5" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="G5" s="6">
+        <v>3</v>
+      </c>
+      <c r="H5" s="58">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3</v>
+      </c>
+      <c r="J5" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>126</v>
+      <c r="K5" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="M5" s="6">
         <v>5</v>
@@ -2842,19 +2883,19 @@
         <v>111</v>
       </c>
       <c r="G6" s="6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6">
-        <v>2</v>
-      </c>
-      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="58">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10">
+        <v>4</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>127</v>
+      <c r="K6" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="M6" s="6">
         <v>6</v>
@@ -2868,19 +2909,19 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G7" s="6">
-        <v>3</v>
-      </c>
-      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="58">
         <v>1</v>
       </c>
       <c r="I7" s="6">
-        <v>3</v>
-      </c>
-      <c r="J7" t="s">
-        <v>125</v>
+        <v>1</v>
+      </c>
+      <c r="J7" s="58" t="s">
+        <v>143</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="M7" s="6">
         <v>7</v>
@@ -2897,19 +2938,19 @@
         <v>122</v>
       </c>
       <c r="G8" s="6">
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="10">
-        <v>4</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>129</v>
+        <v>6</v>
+      </c>
+      <c r="H8" s="58">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="M8" s="10">
         <v>8</v>
@@ -2929,19 +2970,19 @@
         <v>3</v>
       </c>
       <c r="G9" s="6">
-        <v>5</v>
-      </c>
-      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="H9" s="58">
         <v>1</v>
       </c>
       <c r="I9" s="6">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="58" t="s">
         <v>143</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>32</v>
@@ -2956,25 +2997,25 @@
       <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="G10" s="6">
-        <v>6</v>
-      </c>
-      <c r="H10">
+      <c r="G10" s="10">
+        <v>8</v>
+      </c>
+      <c r="H10" s="11">
         <v>1</v>
       </c>
       <c r="I10" s="6">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="58" t="s">
         <v>143</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="27" t="s">
+      <c r="R10" s="59" t="s">
         <v>16</v>
       </c>
       <c r="S10" s="29" t="s">
@@ -2989,19 +3030,19 @@
         <v>1</v>
       </c>
       <c r="G11" s="6">
-        <v>7</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6">
-        <v>3</v>
-      </c>
-      <c r="J11" t="s">
-        <v>143</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>145</v>
+        <v>9</v>
+      </c>
+      <c r="H11" s="58">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>5</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>20</v>
@@ -3011,39 +3052,39 @@
       <c r="Q11" s="6">
         <v>1</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="58" t="s">
         <v>158</v>
       </c>
       <c r="S11" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>3</v>
       </c>
       <c r="C12" s="8">
         <v>1</v>
       </c>
-      <c r="G12" s="10">
-        <v>8</v>
-      </c>
-      <c r="H12" s="11">
-        <v>1</v>
+      <c r="G12" s="6">
+        <v>10</v>
+      </c>
+      <c r="H12" s="58">
+        <v>2</v>
       </c>
       <c r="I12" s="6">
-        <v>4</v>
-      </c>
-      <c r="J12" t="s">
-        <v>143</v>
+        <v>6</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>147</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="M12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="27" t="s">
+      <c r="N12" s="59" t="s">
         <v>17</v>
       </c>
       <c r="O12" s="29" t="s">
@@ -3052,7 +3093,7 @@
       <c r="Q12" s="6">
         <v>2</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="58" t="s">
         <v>158</v>
       </c>
       <c r="S12" s="8">
@@ -3067,40 +3108,40 @@
         <v>1</v>
       </c>
       <c r="G13" s="6">
-        <v>9</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13" s="3">
-        <v>5</v>
-      </c>
-      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="58">
+        <v>2</v>
+      </c>
+      <c r="I13" s="6">
+        <v>7</v>
+      </c>
+      <c r="J13" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>130</v>
+      <c r="K13" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="M13" s="6">
         <v>1</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="58" t="s">
         <v>118</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="Q13">
-        <v>3</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="Q13" s="6">
+        <v>3</v>
+      </c>
+      <c r="R13" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="S13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S13" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>5</v>
       </c>
@@ -3108,40 +3149,40 @@
         <v>2</v>
       </c>
       <c r="G14" s="6">
-        <v>10</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14" s="6">
-        <v>6</v>
-      </c>
-      <c r="J14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="58">
+        <v>2</v>
+      </c>
+      <c r="I14" s="10">
+        <v>8</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>131</v>
+      <c r="K14" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="M14" s="6">
         <v>2</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="58" t="s">
         <v>119</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Q14">
-        <v>4</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="Q14" s="6">
+        <v>4</v>
+      </c>
+      <c r="R14" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="S14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S14" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <v>6</v>
       </c>
@@ -3149,36 +3190,36 @@
         <v>2</v>
       </c>
       <c r="G15" s="6">
-        <v>11</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15" s="6">
-        <v>7</v>
-      </c>
-      <c r="J15" t="s">
-        <v>147</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="M15">
-        <v>3</v>
-      </c>
-      <c r="N15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="58">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>5</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="M15" s="10">
+        <v>3</v>
+      </c>
+      <c r="N15" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="6">
         <v>5</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="8">
         <v>1</v>
       </c>
     </row>
@@ -3190,27 +3231,25 @@
         <v>2</v>
       </c>
       <c r="G16" s="6">
-        <v>12</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16" s="10">
-        <v>8</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q16">
+        <v>14</v>
+      </c>
+      <c r="H16" s="58">
+        <v>2</v>
+      </c>
+      <c r="I16" s="6">
         <v>6</v>
       </c>
-      <c r="R16" t="s">
+      <c r="J16" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="Q16" s="10">
+        <v>6</v>
+      </c>
+      <c r="R16" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3222,32 +3261,30 @@
         <v>2</v>
       </c>
       <c r="G17" s="6">
-        <v>13</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17" s="3">
-        <v>5</v>
-      </c>
-      <c r="J17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="58">
+        <v>2</v>
+      </c>
+      <c r="I17" s="6">
+        <v>7</v>
+      </c>
+      <c r="J17" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="6">
-        <v>14</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18" s="6">
-        <v>6</v>
-      </c>
-      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="58">
+        <v>2</v>
+      </c>
+      <c r="I18" s="10">
+        <v>8</v>
+      </c>
+      <c r="J18" s="58" t="s">
         <v>142</v>
       </c>
       <c r="K18" s="8"/>
@@ -3258,20 +3295,22 @@
       <c r="O18" s="4"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G19" s="6">
-        <v>15</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19" s="6">
-        <v>7</v>
-      </c>
-      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="58">
+        <v>2</v>
+      </c>
+      <c r="I19" s="10">
+        <v>5</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="K19" s="8"/>
+      <c r="K19" s="13" t="s">
+        <v>138</v>
+      </c>
       <c r="M19" s="26" t="s">
         <v>0</v>
       </c>
@@ -3290,18 +3329,18 @@
         <v>116</v>
       </c>
       <c r="G20" s="6">
-        <v>16</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20" s="10">
-        <v>8</v>
-      </c>
-      <c r="J20" t="s">
-        <v>142</v>
-      </c>
-      <c r="K20" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="H20" s="58"/>
+      <c r="I20" s="3">
+        <v>5</v>
+      </c>
+      <c r="J20" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="M20" s="6">
         <v>1</v>
       </c>
@@ -3313,7 +3352,7 @@
       </c>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
@@ -3324,20 +3363,16 @@
         <v>69</v>
       </c>
       <c r="G21" s="6">
-        <v>17</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21" s="10">
-        <v>5</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>138</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H21" s="58"/>
+      <c r="I21" s="6">
+        <v>6</v>
+      </c>
+      <c r="J21" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" s="8"/>
       <c r="M21" s="6">
         <v>2</v>
       </c>
@@ -3353,24 +3388,23 @@
       <c r="B22" s="6">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="58" t="s">
         <v>118</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="6">
-        <v>18</v>
-      </c>
-      <c r="I22" s="3">
-        <v>5</v>
-      </c>
-      <c r="J22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="58"/>
+      <c r="I22" s="6">
+        <v>7</v>
+      </c>
+      <c r="J22" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="K22" s="8" t="s">
-        <v>146</v>
-      </c>
+      <c r="K22" s="8"/>
       <c r="M22" s="6">
         <v>3</v>
       </c>
@@ -3383,21 +3417,26 @@
       <c r="P22" s="8"/>
     </row>
     <row r="23" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="10">
-        <v>2</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="6">
+        <v>2</v>
+      </c>
+      <c r="C23" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="6">
-        <v>6</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="G23" s="6">
+        <v>21</v>
+      </c>
+      <c r="H23" s="58"/>
+      <c r="I23" s="10">
+        <v>8</v>
+      </c>
+      <c r="J23" s="58" t="s">
         <v>173</v>
       </c>
+      <c r="K23" s="8"/>
       <c r="M23" s="6">
         <v>4</v>
       </c>
@@ -3409,20 +3448,27 @@
       </c>
     </row>
     <row r="24" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="10">
+        <v>3</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>170</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="6">
-        <v>7</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="G24" s="6">
+        <v>22</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="10">
+        <v>5</v>
+      </c>
+      <c r="J24" s="11" t="s">
         <v>173</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>144</v>
       </c>
       <c r="M24" s="6">
         <v>5</v>
@@ -3438,12 +3484,6 @@
       <c r="B25" t="s">
         <v>112</v>
       </c>
-      <c r="I25" s="10">
-        <v>8</v>
-      </c>
-      <c r="J25" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="26" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
@@ -3461,15 +3501,6 @@
       <c r="F26" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="I26" s="60">
-        <v>5</v>
-      </c>
-      <c r="J26" t="s">
-        <v>173</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="27" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
@@ -3504,10 +3535,10 @@
       <c r="F28" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="5" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3527,7 +3558,7 @@
       <c r="F29" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J29" s="8" t="s">
@@ -3550,7 +3581,7 @@
       <c r="F30" s="52">
         <v>1</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="6" t="s">
         <v>127</v>
       </c>
       <c r="J30" s="8" t="s">
@@ -3573,11 +3604,11 @@
       <c r="D31" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="11" t="s">
         <v>170</v>
       </c>
       <c r="F31" s="13"/>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="6" t="s">
         <v>128</v>
       </c>
       <c r="J31" s="8" t="s">
@@ -3586,10 +3617,10 @@
       <c r="M31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="O31" s="60" t="s">
         <v>32</v>
       </c>
       <c r="P31" s="7" t="s">
@@ -3597,19 +3628,19 @@
       </c>
     </row>
     <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I32" s="13" t="s">
+      <c r="I32" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="13" t="s">
         <v>146</v>
       </c>
       <c r="M32" s="6">
         <v>1</v>
       </c>
-      <c r="N32">
-        <v>4</v>
-      </c>
-      <c r="O32">
+      <c r="N32" s="58">
+        <v>4</v>
+      </c>
+      <c r="O32" s="58">
         <v>1</v>
       </c>
       <c r="P32" s="47" t="s">
@@ -3620,10 +3651,10 @@
       <c r="M33" s="6">
         <v>2</v>
       </c>
-      <c r="N33">
-        <v>4</v>
-      </c>
-      <c r="O33">
+      <c r="N33" s="58">
+        <v>4</v>
+      </c>
+      <c r="O33" s="58">
         <v>2</v>
       </c>
       <c r="P33" s="8" t="s">
@@ -3642,10 +3673,10 @@
       <c r="M34" s="6">
         <v>3</v>
       </c>
-      <c r="N34">
-        <v>4</v>
-      </c>
-      <c r="O34">
+      <c r="N34" s="58">
+        <v>4</v>
+      </c>
+      <c r="O34" s="58">
         <v>3</v>
       </c>
       <c r="P34" s="8" t="b">
@@ -3656,26 +3687,26 @@
       <c r="B35" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" t="s">
         <v>124</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="K35" s="57" t="s">
+      <c r="K35" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57">
-        <v>4</v>
-      </c>
-      <c r="N35" s="57">
-        <v>4</v>
-      </c>
-      <c r="O35" s="57">
-        <v>4</v>
-      </c>
-      <c r="P35" s="57" t="s">
+      <c r="L35" s="56"/>
+      <c r="M35" s="61">
+        <v>4</v>
+      </c>
+      <c r="N35" s="62">
+        <v>4</v>
+      </c>
+      <c r="O35" s="62">
+        <v>4</v>
+      </c>
+      <c r="P35" s="63" t="s">
         <v>163</v>
       </c>
       <c r="Q35" t="s">
@@ -3696,16 +3727,16 @@
         <v>165</v>
       </c>
       <c r="L36" s="46"/>
-      <c r="M36" s="56">
-        <v>4</v>
-      </c>
-      <c r="N36" s="56">
-        <v>4</v>
-      </c>
-      <c r="O36" s="56">
-        <v>4</v>
-      </c>
-      <c r="P36" s="56" t="s">
+      <c r="M36" s="64">
+        <v>4</v>
+      </c>
+      <c r="N36" s="65">
+        <v>4</v>
+      </c>
+      <c r="O36" s="65">
+        <v>4</v>
+      </c>
+      <c r="P36" s="66" t="s">
         <v>166</v>
       </c>
       <c r="Q36" t="s">
@@ -3713,16 +3744,16 @@
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="M37">
+      <c r="M37" s="6">
         <v>5</v>
       </c>
-      <c r="N37">
-        <v>4</v>
-      </c>
-      <c r="O37">
-        <v>4</v>
-      </c>
-      <c r="P37" s="56" t="s">
+      <c r="N37" s="58">
+        <v>4</v>
+      </c>
+      <c r="O37" s="58">
+        <v>4</v>
+      </c>
+      <c r="P37" s="66" t="s">
         <v>168</v>
       </c>
       <c r="Q37" t="s">
@@ -3730,20 +3761,20 @@
       </c>
     </row>
     <row r="38" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M38">
+      <c r="M38" s="6">
         <v>5</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="58">
         <v>5</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="58">
         <v>5</v>
       </c>
       <c r="P38" s="47" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I39" s="3" t="s">
         <v>147</v>
       </c>
@@ -3753,13 +3784,14 @@
       <c r="K39" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="N39">
+      <c r="M39" s="10"/>
+      <c r="N39" s="11">
         <v>5</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="11">
         <v>6</v>
       </c>
-      <c r="P39" s="56" t="s">
+      <c r="P39" s="67" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3770,7 +3802,7 @@
       <c r="I40" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="J40" s="59" t="s">
+      <c r="J40" t="s">
         <v>151</v>
       </c>
       <c r="K40" s="8" t="s">
@@ -3790,7 +3822,6 @@
       <c r="I41" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J41" s="59"/>
       <c r="K41" s="8"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
@@ -3806,7 +3837,6 @@
       <c r="I42" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="J42" s="59"/>
       <c r="K42" s="8"/>
     </row>
     <row r="43" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/example_data.xlsx
+++ b/example_data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YPP4 GIT\ypp4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5445426C-2479-425F-A236-8532A9917467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CAC59F-2CDE-49B6-965A-7345D720C7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{3FCDC1E8-3F3D-49E2-9489-AC8A5DF61D6D}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{3FCDC1E8-3F3D-49E2-9489-AC8A5DF61D6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Choice Column" sheetId="2" r:id="rId1"/>
     <sheet name="System Column" sheetId="3" r:id="rId2"/>
     <sheet name="Lookup Column" sheetId="4" r:id="rId3"/>
+    <sheet name="ListViewColumn" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="192">
   <si>
     <t>Id</t>
   </si>
@@ -572,6 +573,48 @@
   </si>
   <si>
     <t>Cột nguồn</t>
+  </si>
+  <si>
+    <t>ListView</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>All Items</t>
+  </si>
+  <si>
+    <t>List view 2</t>
+  </si>
+  <si>
+    <t>List view 3</t>
+  </si>
+  <si>
+    <t>List view 4</t>
+  </si>
+  <si>
+    <t>List view 5</t>
+  </si>
+  <si>
+    <t>IsSystem</t>
+  </si>
+  <si>
+    <t>ListViewColumn</t>
+  </si>
+  <si>
+    <t>ListViewId</t>
+  </si>
+  <si>
+    <t>IsVisible</t>
+  </si>
+  <si>
+    <t>ListDynamicColumnId</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>gender</t>
   </si>
 </sst>
 </file>
@@ -651,7 +694,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -807,11 +850,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -921,21 +1072,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2078,7 +2254,7 @@
   <dimension ref="B3:X20"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="K3" sqref="K3:X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2475,10 +2651,10 @@
       </c>
     </row>
     <row r="12" spans="2:24" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="31"/>
       <c r="K12" s="40" t="s">
         <v>73</v>
@@ -2740,7 +2916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0CBC14-08A3-4812-BEBE-9EC877CC6E57}">
   <dimension ref="B1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
@@ -2821,13 +2997,13 @@
       <c r="G4" s="6">
         <v>2</v>
       </c>
-      <c r="H4" s="58">
+      <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" s="6">
         <v>2</v>
       </c>
-      <c r="J4" s="58" t="s">
+      <c r="J4" t="s">
         <v>125</v>
       </c>
       <c r="K4" s="8" t="s">
@@ -2853,13 +3029,13 @@
       <c r="G5" s="6">
         <v>3</v>
       </c>
-      <c r="H5" s="58">
+      <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" s="6">
         <v>3</v>
       </c>
-      <c r="J5" s="58" t="s">
+      <c r="J5" t="s">
         <v>125</v>
       </c>
       <c r="K5" s="8" t="s">
@@ -2885,7 +3061,7 @@
       <c r="G6" s="6">
         <v>4</v>
       </c>
-      <c r="H6" s="58">
+      <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" s="10">
@@ -2911,13 +3087,13 @@
       <c r="G7" s="6">
         <v>5</v>
       </c>
-      <c r="H7" s="58">
+      <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" s="6">
         <v>1</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" t="s">
         <v>143</v>
       </c>
       <c r="K7" s="8" t="s">
@@ -2940,13 +3116,13 @@
       <c r="G8" s="6">
         <v>6</v>
       </c>
-      <c r="H8" s="58">
+      <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" s="6">
         <v>2</v>
       </c>
-      <c r="J8" s="58" t="s">
+      <c r="J8" t="s">
         <v>143</v>
       </c>
       <c r="K8" s="8" t="s">
@@ -2972,13 +3148,13 @@
       <c r="G9" s="6">
         <v>7</v>
       </c>
-      <c r="H9" s="58">
+      <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" s="6">
         <v>3</v>
       </c>
-      <c r="J9" s="58" t="s">
+      <c r="J9" t="s">
         <v>143</v>
       </c>
       <c r="K9" s="8" t="s">
@@ -3006,7 +3182,7 @@
       <c r="I10" s="6">
         <v>4</v>
       </c>
-      <c r="J10" s="58" t="s">
+      <c r="J10" t="s">
         <v>143</v>
       </c>
       <c r="K10" s="8" t="s">
@@ -3015,7 +3191,7 @@
       <c r="Q10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="59" t="s">
+      <c r="R10" s="27" t="s">
         <v>16</v>
       </c>
       <c r="S10" s="29" t="s">
@@ -3032,7 +3208,7 @@
       <c r="G11" s="6">
         <v>9</v>
       </c>
-      <c r="H11" s="58">
+      <c r="H11">
         <v>2</v>
       </c>
       <c r="I11" s="3">
@@ -3052,7 +3228,7 @@
       <c r="Q11" s="6">
         <v>1</v>
       </c>
-      <c r="R11" s="58" t="s">
+      <c r="R11" t="s">
         <v>158</v>
       </c>
       <c r="S11" s="8">
@@ -3069,13 +3245,13 @@
       <c r="G12" s="6">
         <v>10</v>
       </c>
-      <c r="H12" s="58">
+      <c r="H12">
         <v>2</v>
       </c>
       <c r="I12" s="6">
         <v>6</v>
       </c>
-      <c r="J12" s="58" t="s">
+      <c r="J12" t="s">
         <v>147</v>
       </c>
       <c r="K12" s="8" t="s">
@@ -3084,7 +3260,7 @@
       <c r="M12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="59" t="s">
+      <c r="N12" s="27" t="s">
         <v>17</v>
       </c>
       <c r="O12" s="29" t="s">
@@ -3093,7 +3269,7 @@
       <c r="Q12" s="6">
         <v>2</v>
       </c>
-      <c r="R12" s="58" t="s">
+      <c r="R12" t="s">
         <v>158</v>
       </c>
       <c r="S12" s="8">
@@ -3110,13 +3286,13 @@
       <c r="G13" s="6">
         <v>11</v>
       </c>
-      <c r="H13" s="58">
+      <c r="H13">
         <v>2</v>
       </c>
       <c r="I13" s="6">
         <v>7</v>
       </c>
-      <c r="J13" s="58" t="s">
+      <c r="J13" t="s">
         <v>147</v>
       </c>
       <c r="K13" s="8" t="s">
@@ -3125,7 +3301,7 @@
       <c r="M13" s="6">
         <v>1</v>
       </c>
-      <c r="N13" s="58" t="s">
+      <c r="N13" t="s">
         <v>118</v>
       </c>
       <c r="O13" s="8" t="s">
@@ -3134,7 +3310,7 @@
       <c r="Q13" s="6">
         <v>3</v>
       </c>
-      <c r="R13" s="58" t="s">
+      <c r="R13" t="s">
         <v>158</v>
       </c>
       <c r="S13" s="8">
@@ -3151,7 +3327,7 @@
       <c r="G14" s="6">
         <v>12</v>
       </c>
-      <c r="H14" s="58">
+      <c r="H14">
         <v>2</v>
       </c>
       <c r="I14" s="10">
@@ -3166,7 +3342,7 @@
       <c r="M14" s="6">
         <v>2</v>
       </c>
-      <c r="N14" s="58" t="s">
+      <c r="N14" t="s">
         <v>119</v>
       </c>
       <c r="O14" s="8" t="s">
@@ -3175,7 +3351,7 @@
       <c r="Q14" s="6">
         <v>4</v>
       </c>
-      <c r="R14" s="58" t="s">
+      <c r="R14" t="s">
         <v>158</v>
       </c>
       <c r="S14" s="8">
@@ -3192,7 +3368,7 @@
       <c r="G15" s="6">
         <v>13</v>
       </c>
-      <c r="H15" s="58">
+      <c r="H15">
         <v>2</v>
       </c>
       <c r="I15" s="3">
@@ -3216,7 +3392,7 @@
       <c r="Q15" s="6">
         <v>5</v>
       </c>
-      <c r="R15" s="58" t="s">
+      <c r="R15" t="s">
         <v>170</v>
       </c>
       <c r="S15" s="8">
@@ -3233,13 +3409,13 @@
       <c r="G16" s="6">
         <v>14</v>
       </c>
-      <c r="H16" s="58">
+      <c r="H16">
         <v>2</v>
       </c>
       <c r="I16" s="6">
         <v>6</v>
       </c>
-      <c r="J16" s="58" t="s">
+      <c r="J16" t="s">
         <v>142</v>
       </c>
       <c r="K16" s="8"/>
@@ -3263,13 +3439,13 @@
       <c r="G17" s="6">
         <v>15</v>
       </c>
-      <c r="H17" s="58">
+      <c r="H17">
         <v>2</v>
       </c>
       <c r="I17" s="6">
         <v>7</v>
       </c>
-      <c r="J17" s="58" t="s">
+      <c r="J17" t="s">
         <v>142</v>
       </c>
       <c r="K17" s="8"/>
@@ -3278,13 +3454,13 @@
       <c r="G18" s="6">
         <v>16</v>
       </c>
-      <c r="H18" s="58">
+      <c r="H18">
         <v>2</v>
       </c>
       <c r="I18" s="10">
         <v>8</v>
       </c>
-      <c r="J18" s="58" t="s">
+      <c r="J18" t="s">
         <v>142</v>
       </c>
       <c r="K18" s="8"/>
@@ -3299,7 +3475,7 @@
       <c r="G19" s="6">
         <v>17</v>
       </c>
-      <c r="H19" s="58">
+      <c r="H19">
         <v>2</v>
       </c>
       <c r="I19" s="10">
@@ -3331,11 +3507,10 @@
       <c r="G20" s="6">
         <v>18</v>
       </c>
-      <c r="H20" s="58"/>
       <c r="I20" s="3">
         <v>5</v>
       </c>
-      <c r="J20" s="58" t="s">
+      <c r="J20" t="s">
         <v>173</v>
       </c>
       <c r="K20" s="8" t="s">
@@ -3365,11 +3540,10 @@
       <c r="G21" s="6">
         <v>19</v>
       </c>
-      <c r="H21" s="58"/>
       <c r="I21" s="6">
         <v>6</v>
       </c>
-      <c r="J21" s="58" t="s">
+      <c r="J21" t="s">
         <v>173</v>
       </c>
       <c r="K21" s="8"/>
@@ -3388,7 +3562,7 @@
       <c r="B22" s="6">
         <v>1</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" t="s">
         <v>118</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -3397,11 +3571,10 @@
       <c r="G22" s="6">
         <v>20</v>
       </c>
-      <c r="H22" s="58"/>
       <c r="I22" s="6">
         <v>7</v>
       </c>
-      <c r="J22" s="58" t="s">
+      <c r="J22" t="s">
         <v>173</v>
       </c>
       <c r="K22" s="8"/>
@@ -3420,7 +3593,7 @@
       <c r="B23" s="6">
         <v>2</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" t="s">
         <v>119</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -3429,11 +3602,10 @@
       <c r="G23" s="6">
         <v>21</v>
       </c>
-      <c r="H23" s="58"/>
       <c r="I23" s="10">
         <v>8</v>
       </c>
-      <c r="J23" s="58" t="s">
+      <c r="J23" t="s">
         <v>173</v>
       </c>
       <c r="K23" s="8"/>
@@ -3617,10 +3789,10 @@
       <c r="M31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N31" s="58" t="s">
+      <c r="N31" t="s">
         <v>6</v>
       </c>
-      <c r="O31" s="60" t="s">
+      <c r="O31" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P31" s="7" t="s">
@@ -3637,10 +3809,10 @@
       <c r="M32" s="6">
         <v>1</v>
       </c>
-      <c r="N32" s="58">
-        <v>4</v>
-      </c>
-      <c r="O32" s="58">
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="O32">
         <v>1</v>
       </c>
       <c r="P32" s="47" t="s">
@@ -3651,10 +3823,10 @@
       <c r="M33" s="6">
         <v>2</v>
       </c>
-      <c r="N33" s="58">
-        <v>4</v>
-      </c>
-      <c r="O33" s="58">
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
         <v>2</v>
       </c>
       <c r="P33" s="8" t="s">
@@ -3673,10 +3845,10 @@
       <c r="M34" s="6">
         <v>3</v>
       </c>
-      <c r="N34" s="58">
-        <v>4</v>
-      </c>
-      <c r="O34" s="58">
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34">
         <v>3</v>
       </c>
       <c r="P34" s="8" t="b">
@@ -3697,16 +3869,16 @@
         <v>164</v>
       </c>
       <c r="L35" s="56"/>
-      <c r="M35" s="61">
-        <v>4</v>
-      </c>
-      <c r="N35" s="62">
-        <v>4</v>
-      </c>
-      <c r="O35" s="62">
-        <v>4</v>
-      </c>
-      <c r="P35" s="63" t="s">
+      <c r="M35" s="57">
+        <v>4</v>
+      </c>
+      <c r="N35" s="56">
+        <v>4</v>
+      </c>
+      <c r="O35" s="56">
+        <v>4</v>
+      </c>
+      <c r="P35" s="58" t="s">
         <v>163</v>
       </c>
       <c r="Q35" t="s">
@@ -3727,16 +3899,16 @@
         <v>165</v>
       </c>
       <c r="L36" s="46"/>
-      <c r="M36" s="64">
-        <v>4</v>
-      </c>
-      <c r="N36" s="65">
-        <v>4</v>
-      </c>
-      <c r="O36" s="65">
-        <v>4</v>
-      </c>
-      <c r="P36" s="66" t="s">
+      <c r="M36" s="59">
+        <v>4</v>
+      </c>
+      <c r="N36" s="60">
+        <v>4</v>
+      </c>
+      <c r="O36" s="60">
+        <v>4</v>
+      </c>
+      <c r="P36" s="61" t="s">
         <v>166</v>
       </c>
       <c r="Q36" t="s">
@@ -3747,13 +3919,13 @@
       <c r="M37" s="6">
         <v>5</v>
       </c>
-      <c r="N37" s="58">
-        <v>4</v>
-      </c>
-      <c r="O37" s="58">
-        <v>4</v>
-      </c>
-      <c r="P37" s="66" t="s">
+      <c r="N37">
+        <v>4</v>
+      </c>
+      <c r="O37">
+        <v>4</v>
+      </c>
+      <c r="P37" s="61" t="s">
         <v>168</v>
       </c>
       <c r="Q37" t="s">
@@ -3764,10 +3936,10 @@
       <c r="M38" s="6">
         <v>5</v>
       </c>
-      <c r="N38" s="58">
+      <c r="N38">
         <v>5</v>
       </c>
-      <c r="O38" s="58">
+      <c r="O38">
         <v>5</v>
       </c>
       <c r="P38" s="47" t="s">
@@ -3791,7 +3963,7 @@
       <c r="O39" s="11">
         <v>6</v>
       </c>
-      <c r="P39" s="67" t="s">
+      <c r="P39" s="62" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3849,4 +4021,1782 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6423EA7-F7E4-4FE6-96E5-55EEB0D7E5FA}">
+  <dimension ref="B2:AD66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="5" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="16" max="16" width="19" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+    </row>
+    <row r="8" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="11">
+        <v>5</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>178</v>
+      </c>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>185</v>
+      </c>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="64"/>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B20" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="64">
+        <v>1</v>
+      </c>
+      <c r="D21" s="64">
+        <v>1</v>
+      </c>
+      <c r="E21" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="K21" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="M21" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="N21" s="82"/>
+      <c r="O21" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="P21" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="R21" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="S21" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="T21" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="U21" s="82"/>
+      <c r="V21" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="W21" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y21" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA21" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB21" s="82"/>
+      <c r="AC21" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD21" s="81" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>2</v>
+      </c>
+      <c r="C22" s="64">
+        <v>1</v>
+      </c>
+      <c r="D22" s="64">
+        <v>6</v>
+      </c>
+      <c r="E22" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="64"/>
+      <c r="K22" s="83">
+        <v>1</v>
+      </c>
+      <c r="L22" s="83">
+        <v>1</v>
+      </c>
+      <c r="M22" s="83">
+        <v>1</v>
+      </c>
+      <c r="N22" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="O22" s="83">
+        <v>1</v>
+      </c>
+      <c r="P22" s="84">
+        <v>1</v>
+      </c>
+      <c r="R22" s="83">
+        <v>1</v>
+      </c>
+      <c r="S22" s="83">
+        <v>1</v>
+      </c>
+      <c r="T22" s="83">
+        <v>1</v>
+      </c>
+      <c r="U22" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="V22" s="83">
+        <v>1</v>
+      </c>
+      <c r="W22" s="84">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="83">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="83">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="83">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC22" s="83">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>3</v>
+      </c>
+      <c r="C23" s="64">
+        <v>1</v>
+      </c>
+      <c r="D23" s="64">
+        <v>4</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="64"/>
+      <c r="K23" s="83">
+        <v>2</v>
+      </c>
+      <c r="L23" s="83">
+        <v>1</v>
+      </c>
+      <c r="M23" s="83">
+        <v>2</v>
+      </c>
+      <c r="N23" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" s="83">
+        <v>2</v>
+      </c>
+      <c r="P23" s="84">
+        <v>0</v>
+      </c>
+      <c r="R23" s="83">
+        <v>2</v>
+      </c>
+      <c r="S23" s="83">
+        <v>1</v>
+      </c>
+      <c r="T23" s="83">
+        <v>2</v>
+      </c>
+      <c r="U23" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="V23" s="83">
+        <v>3</v>
+      </c>
+      <c r="W23" s="84">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="83">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="83">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="83">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="83">
+        <v>5</v>
+      </c>
+      <c r="AD23" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <v>4</v>
+      </c>
+      <c r="C24" s="64">
+        <v>1</v>
+      </c>
+      <c r="D24" s="64">
+        <v>4</v>
+      </c>
+      <c r="E24" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="64"/>
+      <c r="K24" s="83">
+        <v>3</v>
+      </c>
+      <c r="L24" s="83">
+        <v>1</v>
+      </c>
+      <c r="M24" s="83">
+        <v>3</v>
+      </c>
+      <c r="N24" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="O24" s="83">
+        <v>3</v>
+      </c>
+      <c r="P24" s="84">
+        <v>0</v>
+      </c>
+      <c r="R24" s="83">
+        <v>3</v>
+      </c>
+      <c r="S24" s="83">
+        <v>1</v>
+      </c>
+      <c r="T24" s="83">
+        <v>3</v>
+      </c>
+      <c r="U24" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="V24" s="83">
+        <v>4</v>
+      </c>
+      <c r="W24" s="84">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="83">
+        <v>3</v>
+      </c>
+      <c r="Z24" s="83">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="83">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC24" s="83">
+        <v>3</v>
+      </c>
+      <c r="AD24" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <v>5</v>
+      </c>
+      <c r="C25" s="64">
+        <v>1</v>
+      </c>
+      <c r="D25" s="64">
+        <v>2</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="64"/>
+      <c r="K25" s="83">
+        <v>4</v>
+      </c>
+      <c r="L25" s="83">
+        <v>1</v>
+      </c>
+      <c r="M25" s="83">
+        <v>4</v>
+      </c>
+      <c r="N25" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="O25" s="83">
+        <v>4</v>
+      </c>
+      <c r="P25" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="83">
+        <v>4</v>
+      </c>
+      <c r="S25" s="83">
+        <v>1</v>
+      </c>
+      <c r="T25" s="83">
+        <v>4</v>
+      </c>
+      <c r="U25" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="V25" s="83">
+        <v>5</v>
+      </c>
+      <c r="W25" s="84">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="83">
+        <v>4</v>
+      </c>
+      <c r="Z25" s="83">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="83">
+        <v>4</v>
+      </c>
+      <c r="AB25" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC25" s="83">
+        <v>6</v>
+      </c>
+      <c r="AD25" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <v>6</v>
+      </c>
+      <c r="C26" s="64">
+        <v>1</v>
+      </c>
+      <c r="D26" s="64">
+        <v>4</v>
+      </c>
+      <c r="E26" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="64"/>
+      <c r="G26" s="66">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="64"/>
+      <c r="K26" s="83">
+        <v>5</v>
+      </c>
+      <c r="L26" s="83">
+        <v>1</v>
+      </c>
+      <c r="M26" s="83">
+        <v>5</v>
+      </c>
+      <c r="N26" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="O26" s="83">
+        <v>5</v>
+      </c>
+      <c r="P26" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="83">
+        <v>5</v>
+      </c>
+      <c r="S26" s="83">
+        <v>1</v>
+      </c>
+      <c r="T26" s="83">
+        <v>5</v>
+      </c>
+      <c r="U26" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="V26" s="83">
+        <v>6</v>
+      </c>
+      <c r="W26" s="84">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="83">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="83">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="83">
+        <v>5</v>
+      </c>
+      <c r="AB26" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC26" s="83">
+        <v>7</v>
+      </c>
+      <c r="AD26" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <v>7</v>
+      </c>
+      <c r="C27" s="64">
+        <v>1</v>
+      </c>
+      <c r="D27" s="64">
+        <v>4</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="64"/>
+      <c r="G27" s="66">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="64"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="84">
+        <v>6</v>
+      </c>
+      <c r="S27" s="84">
+        <v>1</v>
+      </c>
+      <c r="T27" s="64">
+        <v>6</v>
+      </c>
+      <c r="U27" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="V27" s="84">
+        <v>2</v>
+      </c>
+      <c r="W27" s="84">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="84">
+        <v>6</v>
+      </c>
+      <c r="Z27" s="84">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="64">
+        <v>6</v>
+      </c>
+      <c r="AB27" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC27" s="84">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>8</v>
+      </c>
+      <c r="C28" s="64">
+        <v>1</v>
+      </c>
+      <c r="D28" s="64">
+        <v>1</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="64"/>
+      <c r="G28" s="66">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="Y28" s="84">
+        <v>7</v>
+      </c>
+      <c r="Z28" s="84">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="64">
+        <v>7</v>
+      </c>
+      <c r="AB28" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC28" s="84">
+        <v>4</v>
+      </c>
+      <c r="AD28" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B29" s="86">
+        <v>9</v>
+      </c>
+      <c r="C29" s="64">
+        <v>1</v>
+      </c>
+      <c r="D29" s="64">
+        <v>1</v>
+      </c>
+      <c r="E29" s="66" t="s">
+        <v>179</v>
+      </c>
+      <c r="F29" s="64"/>
+      <c r="G29" s="66">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+    </row>
+    <row r="30" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="87">
+        <v>10</v>
+      </c>
+      <c r="C30" s="88">
+        <v>1</v>
+      </c>
+      <c r="D30" s="88">
+        <v>1</v>
+      </c>
+      <c r="E30" s="88" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="13"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="64"/>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="K32" s="83">
+        <v>6</v>
+      </c>
+      <c r="L32" s="83">
+        <v>1</v>
+      </c>
+      <c r="M32" s="83">
+        <v>6</v>
+      </c>
+      <c r="N32" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="O32" s="83">
+        <v>6</v>
+      </c>
+      <c r="P32" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="66"/>
+    </row>
+    <row r="33" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K33" s="83">
+        <v>7</v>
+      </c>
+      <c r="L33" s="83">
+        <v>1</v>
+      </c>
+      <c r="M33" s="83">
+        <v>7</v>
+      </c>
+      <c r="N33" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="O33" s="83">
+        <v>7</v>
+      </c>
+      <c r="P33" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="64"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="66"/>
+    </row>
+    <row r="34" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K34" s="83">
+        <v>8</v>
+      </c>
+      <c r="L34" s="83">
+        <v>1</v>
+      </c>
+      <c r="M34" s="83">
+        <v>8</v>
+      </c>
+      <c r="N34" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="O34" s="83">
+        <v>8</v>
+      </c>
+      <c r="P34" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="66"/>
+    </row>
+    <row r="35" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K35" s="84">
+        <v>9</v>
+      </c>
+      <c r="L35" s="83">
+        <v>1</v>
+      </c>
+      <c r="M35" s="84">
+        <v>9</v>
+      </c>
+      <c r="N35" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="O35" s="83">
+        <v>9</v>
+      </c>
+      <c r="P35" s="84">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="66"/>
+    </row>
+    <row r="36" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K36" s="85">
+        <v>19</v>
+      </c>
+      <c r="L36" s="85">
+        <v>1</v>
+      </c>
+      <c r="M36" s="85">
+        <v>10</v>
+      </c>
+      <c r="N36" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="O36" s="85">
+        <v>10</v>
+      </c>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
+      <c r="V36" s="64"/>
+      <c r="W36" s="66"/>
+    </row>
+    <row r="37" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K37" s="64"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="66"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="64"/>
+      <c r="W37" s="66"/>
+    </row>
+    <row r="38" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K38" s="64"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="64"/>
+      <c r="R38" s="64"/>
+      <c r="S38" s="66"/>
+      <c r="T38" s="64"/>
+      <c r="U38" s="64"/>
+      <c r="V38" s="64"/>
+      <c r="W38" s="66"/>
+    </row>
+    <row r="39" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="64"/>
+      <c r="R39" s="66"/>
+      <c r="S39" s="66"/>
+      <c r="T39" s="64"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="64"/>
+      <c r="W39" s="66"/>
+    </row>
+    <row r="40" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K40" s="64"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="64"/>
+      <c r="R40" s="64"/>
+      <c r="S40" s="66"/>
+      <c r="T40" s="66"/>
+      <c r="U40" s="66"/>
+      <c r="V40" s="64"/>
+      <c r="W40" s="66"/>
+    </row>
+    <row r="41" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="66"/>
+      <c r="S41" s="66"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="66"/>
+      <c r="V41" s="66"/>
+      <c r="W41" s="64"/>
+    </row>
+    <row r="45" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K46" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="L46" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="M46" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="N46" s="68"/>
+      <c r="O46" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="P46" s="67" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K47" s="69">
+        <v>1</v>
+      </c>
+      <c r="L47" s="51">
+        <v>1</v>
+      </c>
+      <c r="M47" s="69">
+        <v>1</v>
+      </c>
+      <c r="N47" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="O47" s="51">
+        <v>1</v>
+      </c>
+      <c r="P47" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K48" s="71">
+        <v>2</v>
+      </c>
+      <c r="L48" s="64">
+        <v>1</v>
+      </c>
+      <c r="M48" s="71">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>0</v>
+      </c>
+      <c r="O48" s="64">
+        <v>2</v>
+      </c>
+      <c r="P48" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K49" s="71">
+        <v>3</v>
+      </c>
+      <c r="L49" s="64">
+        <v>1</v>
+      </c>
+      <c r="M49" s="71">
+        <v>3</v>
+      </c>
+      <c r="N49" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="O49" s="64">
+        <v>3</v>
+      </c>
+      <c r="P49" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K50" s="71">
+        <v>4</v>
+      </c>
+      <c r="L50" s="64">
+        <v>1</v>
+      </c>
+      <c r="M50" s="71">
+        <v>4</v>
+      </c>
+      <c r="N50" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="O50" s="64">
+        <v>4</v>
+      </c>
+      <c r="P50" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K51" s="71">
+        <v>5</v>
+      </c>
+      <c r="L51" s="64">
+        <v>1</v>
+      </c>
+      <c r="M51" s="71">
+        <v>5</v>
+      </c>
+      <c r="N51" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="O51" s="64">
+        <v>5</v>
+      </c>
+      <c r="P51" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K52" s="71">
+        <v>6</v>
+      </c>
+      <c r="L52" s="64">
+        <v>1</v>
+      </c>
+      <c r="M52" s="71">
+        <v>6</v>
+      </c>
+      <c r="N52" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="O52" s="64">
+        <v>6</v>
+      </c>
+      <c r="P52" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K53" s="71">
+        <v>7</v>
+      </c>
+      <c r="L53" s="64">
+        <v>1</v>
+      </c>
+      <c r="M53" s="71">
+        <v>7</v>
+      </c>
+      <c r="N53" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="O53" s="64">
+        <v>7</v>
+      </c>
+      <c r="P53" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K54" s="71">
+        <v>8</v>
+      </c>
+      <c r="L54" s="64">
+        <v>1</v>
+      </c>
+      <c r="M54" s="71">
+        <v>8</v>
+      </c>
+      <c r="N54" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="O54" s="64">
+        <v>8</v>
+      </c>
+      <c r="P54" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K55" s="78">
+        <v>9</v>
+      </c>
+      <c r="L55" s="64">
+        <v>1</v>
+      </c>
+      <c r="M55" s="78">
+        <v>9</v>
+      </c>
+      <c r="N55" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="O55" s="64">
+        <v>9</v>
+      </c>
+      <c r="P55" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K56" s="78">
+        <v>19</v>
+      </c>
+      <c r="L56" s="66">
+        <v>1</v>
+      </c>
+      <c r="M56" s="78">
+        <v>10</v>
+      </c>
+      <c r="N56" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="O56" s="66">
+        <v>10</v>
+      </c>
+      <c r="P56" s="72"/>
+    </row>
+    <row r="57" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K57" s="69">
+        <v>10</v>
+      </c>
+      <c r="L57" s="77">
+        <v>2</v>
+      </c>
+      <c r="M57" s="51">
+        <v>1</v>
+      </c>
+      <c r="N57" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="O57" s="51">
+        <v>1</v>
+      </c>
+      <c r="P57" s="70">
+        <v>0</v>
+      </c>
+      <c r="R57" s="69">
+        <v>10</v>
+      </c>
+      <c r="S57" s="77">
+        <v>2</v>
+      </c>
+      <c r="T57" s="51">
+        <v>1</v>
+      </c>
+      <c r="U57" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="V57" s="51">
+        <v>9</v>
+      </c>
+      <c r="W57" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K58" s="71">
+        <v>11</v>
+      </c>
+      <c r="L58" s="66">
+        <v>2</v>
+      </c>
+      <c r="M58" s="64">
+        <v>2</v>
+      </c>
+      <c r="N58" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="O58" s="64">
+        <v>2</v>
+      </c>
+      <c r="P58" s="72">
+        <v>1</v>
+      </c>
+      <c r="R58" s="71">
+        <v>11</v>
+      </c>
+      <c r="S58" s="66">
+        <v>2</v>
+      </c>
+      <c r="T58" s="64">
+        <v>2</v>
+      </c>
+      <c r="U58" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="V58" s="64">
+        <v>7</v>
+      </c>
+      <c r="W58" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K59" s="71">
+        <v>12</v>
+      </c>
+      <c r="L59" s="66">
+        <v>2</v>
+      </c>
+      <c r="M59" s="64">
+        <v>3</v>
+      </c>
+      <c r="N59" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="O59" s="64">
+        <v>3</v>
+      </c>
+      <c r="P59" s="72">
+        <v>0</v>
+      </c>
+      <c r="R59" s="71">
+        <v>12</v>
+      </c>
+      <c r="S59" s="66">
+        <v>2</v>
+      </c>
+      <c r="T59" s="64">
+        <v>3</v>
+      </c>
+      <c r="U59" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="V59" s="64">
+        <v>8</v>
+      </c>
+      <c r="W59" s="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K60" s="71">
+        <v>13</v>
+      </c>
+      <c r="L60" s="66">
+        <v>2</v>
+      </c>
+      <c r="M60" s="64">
+        <v>4</v>
+      </c>
+      <c r="N60" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="O60" s="64">
+        <v>4</v>
+      </c>
+      <c r="P60" s="72">
+        <v>0</v>
+      </c>
+      <c r="R60" s="71">
+        <v>13</v>
+      </c>
+      <c r="S60" s="66">
+        <v>2</v>
+      </c>
+      <c r="T60" s="64">
+        <v>4</v>
+      </c>
+      <c r="U60" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="V60" s="64">
+        <v>6</v>
+      </c>
+      <c r="W60" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K61" s="71">
+        <v>14</v>
+      </c>
+      <c r="L61" s="66">
+        <v>2</v>
+      </c>
+      <c r="M61" s="64">
+        <v>5</v>
+      </c>
+      <c r="N61" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="O61" s="64">
+        <v>5</v>
+      </c>
+      <c r="P61" s="72">
+        <v>0</v>
+      </c>
+      <c r="R61" s="71">
+        <v>14</v>
+      </c>
+      <c r="S61" s="66">
+        <v>2</v>
+      </c>
+      <c r="T61" s="64">
+        <v>5</v>
+      </c>
+      <c r="U61" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="V61" s="64">
+        <v>5</v>
+      </c>
+      <c r="W61" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K62" s="71">
+        <v>15</v>
+      </c>
+      <c r="L62" s="66">
+        <v>2</v>
+      </c>
+      <c r="M62" s="64">
+        <v>6</v>
+      </c>
+      <c r="N62" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="O62" s="64">
+        <v>6</v>
+      </c>
+      <c r="P62" s="72">
+        <v>1</v>
+      </c>
+      <c r="R62" s="71">
+        <v>15</v>
+      </c>
+      <c r="S62" s="66">
+        <v>2</v>
+      </c>
+      <c r="T62" s="64">
+        <v>6</v>
+      </c>
+      <c r="U62" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="V62" s="64">
+        <v>4</v>
+      </c>
+      <c r="W62" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K63" s="71">
+        <v>16</v>
+      </c>
+      <c r="L63" s="66">
+        <v>2</v>
+      </c>
+      <c r="M63" s="64">
+        <v>7</v>
+      </c>
+      <c r="N63" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="O63" s="64">
+        <v>7</v>
+      </c>
+      <c r="P63" s="72">
+        <v>1</v>
+      </c>
+      <c r="R63" s="71">
+        <v>16</v>
+      </c>
+      <c r="S63" s="66">
+        <v>2</v>
+      </c>
+      <c r="T63" s="64">
+        <v>7</v>
+      </c>
+      <c r="U63" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="V63" s="64">
+        <v>2</v>
+      </c>
+      <c r="W63" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K64" s="78">
+        <v>17</v>
+      </c>
+      <c r="L64" s="66">
+        <v>2</v>
+      </c>
+      <c r="M64" s="64">
+        <v>8</v>
+      </c>
+      <c r="N64" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="O64" s="64">
+        <v>8</v>
+      </c>
+      <c r="P64" s="72">
+        <v>1</v>
+      </c>
+      <c r="R64" s="78">
+        <v>17</v>
+      </c>
+      <c r="S64" s="66">
+        <v>2</v>
+      </c>
+      <c r="T64" s="64">
+        <v>8</v>
+      </c>
+      <c r="U64" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="V64" s="64">
+        <v>3</v>
+      </c>
+      <c r="W64" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K65" s="79">
+        <v>18</v>
+      </c>
+      <c r="L65" s="74">
+        <v>2</v>
+      </c>
+      <c r="M65" s="74">
+        <v>9</v>
+      </c>
+      <c r="N65" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="O65" s="73">
+        <v>9</v>
+      </c>
+      <c r="P65" s="75">
+        <v>1</v>
+      </c>
+      <c r="R65" s="79">
+        <v>18</v>
+      </c>
+      <c r="S65" s="74">
+        <v>2</v>
+      </c>
+      <c r="T65" s="74">
+        <v>9</v>
+      </c>
+      <c r="U65" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="V65" s="73">
+        <v>1</v>
+      </c>
+      <c r="W65" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="R66" s="78">
+        <v>20</v>
+      </c>
+      <c r="S66" s="66">
+        <v>2</v>
+      </c>
+      <c r="T66" s="78">
+        <v>10</v>
+      </c>
+      <c r="U66" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="V66" s="66">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="P7:Q7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>